--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3904.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3904.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.772142027601813</v>
+        <v>1.642273426055908</v>
       </c>
       <c r="B1">
-        <v>2.267123637399947</v>
+        <v>2.871334552764893</v>
       </c>
       <c r="C1">
-        <v>3.379467647115093</v>
+        <v>3.47297739982605</v>
       </c>
       <c r="D1">
-        <v>7.557677310105054</v>
+        <v>3.705272674560547</v>
       </c>
       <c r="E1">
-        <v>0.7235288986975503</v>
+        <v>3.30239725112915</v>
       </c>
     </row>
   </sheetData>
